--- a/PacificLB/Test.xlsx
+++ b/PacificLB/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -128,7 +128,100 @@
     <t>CCLU6647830</t>
   </si>
   <si>
-    <t>TCNU7412812</t>
+    <t>CSNU6840404</t>
+  </si>
+  <si>
+    <t>KOTA PERWIRA</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>DJLAXA3881544</t>
+  </si>
+  <si>
+    <t>7075355966</t>
+  </si>
+  <si>
+    <t>6192853250</t>
+  </si>
+  <si>
+    <t>PCIU9327463</t>
+  </si>
+  <si>
+    <t>COSCO BELGIUM</t>
+  </si>
+  <si>
+    <t>00037</t>
+  </si>
+  <si>
+    <t>DJLAXA3970792</t>
+  </si>
+  <si>
+    <t>7075381910</t>
+  </si>
+  <si>
+    <t>HUPE90036400</t>
+  </si>
+  <si>
+    <t>PCIU8870460</t>
+  </si>
+  <si>
+    <t>00057</t>
+  </si>
+  <si>
+    <t>DJLAXA3964432</t>
+  </si>
+  <si>
+    <t>7075377196</t>
+  </si>
+  <si>
+    <t>CKBH80037400</t>
+  </si>
+  <si>
+    <t>CCLU4523608</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>7075387188</t>
+  </si>
+  <si>
+    <t>6202929860</t>
+  </si>
+  <si>
+    <t>CSNU4044115</t>
+  </si>
+  <si>
+    <t>SEGU5288938</t>
+  </si>
+  <si>
+    <t>CCLU5164360</t>
+  </si>
+  <si>
+    <t>CAIU4529083</t>
+  </si>
+  <si>
+    <t>WHLU0524858</t>
+  </si>
+  <si>
+    <t>KOTA PERDANA</t>
+  </si>
+  <si>
+    <t>00008</t>
+  </si>
+  <si>
+    <t>DJLAXA3964419</t>
+  </si>
+  <si>
+    <t>7075387760</t>
+  </si>
+  <si>
+    <t>0319511492</t>
+  </si>
+  <si>
+    <t>WHSU4030674</t>
   </si>
   <si>
     <t>COSCO EUROPE</t>
@@ -137,336 +230,123 @@
     <t>00066</t>
   </si>
   <si>
-    <t>DJLAXA3939493</t>
-  </si>
-  <si>
-    <t>7075374705</t>
+    <t>DJLAXA3986551</t>
+  </si>
+  <si>
+    <t>7075378479</t>
+  </si>
+  <si>
+    <t>0229A22359</t>
+  </si>
+  <si>
+    <t>PCIU9185219</t>
+  </si>
+  <si>
+    <t>7075386565</t>
+  </si>
+  <si>
+    <t>SZX900811100</t>
+  </si>
+  <si>
+    <t>PCIU9381314</t>
+  </si>
+  <si>
+    <t>PCIU9018166</t>
+  </si>
+  <si>
+    <t>PCIU9407759</t>
+  </si>
+  <si>
+    <t>TEMU6184214</t>
+  </si>
+  <si>
+    <t>DJLAXA3970793</t>
+  </si>
+  <si>
+    <t>FSCU5062724</t>
+  </si>
+  <si>
+    <t>7075394090</t>
+  </si>
+  <si>
+    <t>6206960320</t>
+  </si>
+  <si>
+    <t>BSIU2686181</t>
+  </si>
+  <si>
+    <t>CBHU8893149</t>
+  </si>
+  <si>
+    <t>DJLAXA3881538</t>
+  </si>
+  <si>
+    <t>PCIU9133581</t>
+  </si>
+  <si>
+    <t>DJLAXA3964433</t>
+  </si>
+  <si>
+    <t>CAIU3332778</t>
+  </si>
+  <si>
+    <t>DJLAXA3957529</t>
+  </si>
+  <si>
+    <t>7075378660</t>
+  </si>
+  <si>
+    <t>HKG900108900</t>
+  </si>
+  <si>
+    <t>PCIU8612379</t>
+  </si>
+  <si>
+    <t>7075385137</t>
+  </si>
+  <si>
+    <t>HKG900129600</t>
+  </si>
+  <si>
+    <t>BMOU2573343</t>
+  </si>
+  <si>
+    <t>PCIU1651310</t>
+  </si>
+  <si>
+    <t>DJLAXA3933181</t>
+  </si>
+  <si>
+    <t>7075380252</t>
+  </si>
+  <si>
+    <t>SZX900782400</t>
+  </si>
+  <si>
+    <t>PCIU1652425</t>
+  </si>
+  <si>
+    <t>DJLAXA3939269</t>
+  </si>
+  <si>
+    <t>7075372090</t>
+  </si>
+  <si>
+    <t>HUPE90037300</t>
+  </si>
+  <si>
+    <t>WHSU5336437</t>
+  </si>
+  <si>
+    <t>DJLAXA3939490</t>
+  </si>
+  <si>
+    <t>7075374704</t>
   </si>
   <si>
     <t>0419X00654</t>
   </si>
   <si>
-    <t>CSNU6840404</t>
-  </si>
-  <si>
-    <t>KOTA PERWIRA</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>DJLAXA3881544</t>
-  </si>
-  <si>
-    <t>7075355966</t>
-  </si>
-  <si>
-    <t>6192853250</t>
-  </si>
-  <si>
-    <t>PCIU9327463</t>
-  </si>
-  <si>
-    <t>COSCO BELGIUM</t>
-  </si>
-  <si>
-    <t>00037</t>
-  </si>
-  <si>
-    <t>DJLAXA3970792</t>
-  </si>
-  <si>
-    <t>7075381910</t>
-  </si>
-  <si>
-    <t>HUPE90036400</t>
-  </si>
-  <si>
-    <t>PCIU9046830</t>
-  </si>
-  <si>
-    <t>7075380645</t>
-  </si>
-  <si>
-    <t>SZX900757100</t>
-  </si>
-  <si>
-    <t>CXDU2121933</t>
-  </si>
-  <si>
-    <t>PCIU9424761</t>
-  </si>
-  <si>
-    <t>PCIU8587867</t>
-  </si>
-  <si>
-    <t>PCIU9291057</t>
-  </si>
-  <si>
-    <t>PCIU8870460</t>
-  </si>
-  <si>
-    <t>00057</t>
-  </si>
-  <si>
-    <t>DJLAXA3964432</t>
-  </si>
-  <si>
-    <t>7075377196</t>
-  </si>
-  <si>
-    <t>CKBH80037400</t>
-  </si>
-  <si>
-    <t>CCLU4523608</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>7075387188</t>
-  </si>
-  <si>
-    <t>6202929860</t>
-  </si>
-  <si>
-    <t>CSNU4044115</t>
-  </si>
-  <si>
-    <t>SEGU5288938</t>
-  </si>
-  <si>
-    <t>CCLU5164360</t>
-  </si>
-  <si>
-    <t>CAIU4529083</t>
-  </si>
-  <si>
-    <t>WHLU0524858</t>
-  </si>
-  <si>
-    <t>KOTA PERDANA</t>
-  </si>
-  <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>DJLAXA3964419</t>
-  </si>
-  <si>
-    <t>7075387760</t>
-  </si>
-  <si>
-    <t>0319511492</t>
-  </si>
-  <si>
-    <t>FCIU5341355</t>
-  </si>
-  <si>
-    <t>COSCO ASIA</t>
-  </si>
-  <si>
-    <t>00061</t>
-  </si>
-  <si>
-    <t>DJLAXA3968598</t>
-  </si>
-  <si>
-    <t>7075379212</t>
-  </si>
-  <si>
-    <t>COSU6198950910</t>
-  </si>
-  <si>
-    <t>TEMU6184214</t>
-  </si>
-  <si>
-    <t>DJLAXA3970793</t>
-  </si>
-  <si>
-    <t>PCIU8349262</t>
-  </si>
-  <si>
-    <t>KOTA PANJANG</t>
-  </si>
-  <si>
-    <t>00012</t>
-  </si>
-  <si>
-    <t>DJLAXA3901249</t>
-  </si>
-  <si>
-    <t>7075365045</t>
-  </si>
-  <si>
-    <t>HUPE90036800</t>
-  </si>
-  <si>
-    <t>CBHU8893149</t>
-  </si>
-  <si>
-    <t>DJLAXA3881538</t>
-  </si>
-  <si>
-    <t>PCIU9133581</t>
-  </si>
-  <si>
-    <t>DJLAXA3964433</t>
-  </si>
-  <si>
-    <t>CAIU3332778</t>
-  </si>
-  <si>
-    <t>DJLAXA3957529</t>
-  </si>
-  <si>
-    <t>7075378660</t>
-  </si>
-  <si>
-    <t>HKG900108900</t>
-  </si>
-  <si>
-    <t>GAOU2174466</t>
-  </si>
-  <si>
-    <t>DJLAXA3920121</t>
-  </si>
-  <si>
-    <t>7075380374</t>
-  </si>
-  <si>
-    <t>6206813330</t>
-  </si>
-  <si>
-    <t>PCIU8444300</t>
-  </si>
-  <si>
-    <t>DJLAXA3901250</t>
-  </si>
-  <si>
-    <t>FCIU9191145</t>
-  </si>
-  <si>
-    <t>DJLAXA3933384</t>
-  </si>
-  <si>
-    <t>7075373414</t>
-  </si>
-  <si>
-    <t>HUA900142000</t>
-  </si>
-  <si>
-    <t>CAIU8270909</t>
-  </si>
-  <si>
-    <t>DJLAXA3933388</t>
-  </si>
-  <si>
-    <t>7075373416</t>
-  </si>
-  <si>
-    <t>HUA900141900</t>
-  </si>
-  <si>
-    <t>PCIU8734000</t>
-  </si>
-  <si>
-    <t>DJLAXA3901251</t>
-  </si>
-  <si>
-    <t>PCIU8612379</t>
-  </si>
-  <si>
-    <t>7075385137</t>
-  </si>
-  <si>
-    <t>HKG900129600</t>
-  </si>
-  <si>
-    <t>BMOU2573343</t>
-  </si>
-  <si>
-    <t>PCIU1651310</t>
-  </si>
-  <si>
-    <t>DJLAXA3933181</t>
-  </si>
-  <si>
-    <t>7075380252</t>
-  </si>
-  <si>
-    <t>SZX900782400</t>
-  </si>
-  <si>
-    <t>SEGU1362791</t>
-  </si>
-  <si>
-    <t>061E</t>
-  </si>
-  <si>
-    <t>7075383909</t>
-  </si>
-  <si>
-    <t>COSU6198954960</t>
-  </si>
-  <si>
-    <t>PCIU1652425</t>
-  </si>
-  <si>
-    <t>DJLAXA3939269</t>
-  </si>
-  <si>
-    <t>7075372090</t>
-  </si>
-  <si>
-    <t>HUPE90037300</t>
-  </si>
-  <si>
-    <t>WHSU5336437</t>
-  </si>
-  <si>
-    <t>DJLAXA3939490</t>
-  </si>
-  <si>
-    <t>7075374704</t>
-  </si>
-  <si>
-    <t>PCIU8236939</t>
-  </si>
-  <si>
-    <t>DJLAXA3956163</t>
-  </si>
-  <si>
-    <t>7075377180</t>
-  </si>
-  <si>
-    <t>HUPE90041300</t>
-  </si>
-  <si>
-    <t>PCIU9024636</t>
-  </si>
-  <si>
-    <t>DJLAXA3933396</t>
-  </si>
-  <si>
-    <t>7075372291</t>
-  </si>
-  <si>
-    <t>HUA900156400</t>
-  </si>
-  <si>
-    <t>DFSU7673136</t>
-  </si>
-  <si>
-    <t>DJLAXA3958014</t>
-  </si>
-  <si>
-    <t>7075379438</t>
-  </si>
-  <si>
-    <t>0319510954</t>
-  </si>
-  <si>
     <t>CSNU6499073</t>
   </si>
   <si>
@@ -494,16 +374,31 @@
     <t>2106162300</t>
   </si>
   <si>
-    <t>TCNU2638880</t>
-  </si>
-  <si>
-    <t>066</t>
-  </si>
-  <si>
-    <t>7075382696</t>
-  </si>
-  <si>
-    <t>6200782230</t>
+    <t>CCLU7088891</t>
+  </si>
+  <si>
+    <t>7075386145</t>
+  </si>
+  <si>
+    <t>6204890990</t>
+  </si>
+  <si>
+    <t>SEGU4140756</t>
+  </si>
+  <si>
+    <t>FCIU9686150</t>
+  </si>
+  <si>
+    <t>PCIU1566760</t>
+  </si>
+  <si>
+    <t>DJLAXA3994102</t>
+  </si>
+  <si>
+    <t>7075380145</t>
+  </si>
+  <si>
+    <t>SGN900359400</t>
   </si>
 </sst>
 </file>
@@ -548,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -839,30 +734,30 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -879,10 +774,10 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
@@ -899,10 +794,10 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
@@ -919,10 +814,10 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
@@ -939,10 +834,10 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
@@ -959,619 +854,479 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s">
         <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" t="s">
-        <v>162</v>
-      </c>
-      <c r="F51" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/PacificLB/Test.xlsx
+++ b/PacificLB/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -164,12 +164,24 @@
     <t>HUPE90036400</t>
   </si>
   <si>
+    <t>FSCU5043690</t>
+  </si>
+  <si>
+    <t>00057</t>
+  </si>
+  <si>
+    <t>DJLAXA4002647</t>
+  </si>
+  <si>
+    <t>7075392548</t>
+  </si>
+  <si>
+    <t>6211247280</t>
+  </si>
+  <si>
     <t>PCIU8870460</t>
   </si>
   <si>
-    <t>00057</t>
-  </si>
-  <si>
     <t>DJLAXA3964432</t>
   </si>
   <si>
@@ -287,18 +299,6 @@
     <t>DJLAXA3964433</t>
   </si>
   <si>
-    <t>CAIU3332778</t>
-  </si>
-  <si>
-    <t>DJLAXA3957529</t>
-  </si>
-  <si>
-    <t>7075378660</t>
-  </si>
-  <si>
-    <t>HKG900108900</t>
-  </si>
-  <si>
     <t>PCIU8612379</t>
   </si>
   <si>
@@ -311,42 +311,6 @@
     <t>BMOU2573343</t>
   </si>
   <si>
-    <t>PCIU1651310</t>
-  </si>
-  <si>
-    <t>DJLAXA3933181</t>
-  </si>
-  <si>
-    <t>7075380252</t>
-  </si>
-  <si>
-    <t>SZX900782400</t>
-  </si>
-  <si>
-    <t>PCIU1652425</t>
-  </si>
-  <si>
-    <t>DJLAXA3939269</t>
-  </si>
-  <si>
-    <t>7075372090</t>
-  </si>
-  <si>
-    <t>HUPE90037300</t>
-  </si>
-  <si>
-    <t>WHSU5336437</t>
-  </si>
-  <si>
-    <t>DJLAXA3939490</t>
-  </si>
-  <si>
-    <t>7075374704</t>
-  </si>
-  <si>
-    <t>0419X00654</t>
-  </si>
-  <si>
     <t>CSNU6499073</t>
   </si>
   <si>
@@ -387,6 +351,27 @@
   </si>
   <si>
     <t>FCIU9686150</t>
+  </si>
+  <si>
+    <t>DFSU2113709</t>
+  </si>
+  <si>
+    <t>CMA CGM G. WASHINGTO</t>
+  </si>
+  <si>
+    <t>7075389907</t>
+  </si>
+  <si>
+    <t>AJD0257243</t>
+  </si>
+  <si>
+    <t>CCLU4856595</t>
+  </si>
+  <si>
+    <t>7075389527</t>
+  </si>
+  <si>
+    <t>6200782540</t>
   </si>
   <si>
     <t>PCIU1566760</t>
@@ -443,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -754,13 +739,13 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>57</v>
@@ -777,141 +762,141 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
@@ -920,18 +905,18 @@
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
@@ -940,18 +925,18 @@
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -960,18 +945,18 @@
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -980,38 +965,38 @@
         <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1020,73 +1005,73 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
@@ -1097,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>96</v>
@@ -1117,7 +1102,7 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>96</v>
@@ -1134,84 +1119,84 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
@@ -1220,78 +1205,78 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -1303,30 +1288,10 @@
         <v>121</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/PacificLB/Test.xlsx
+++ b/PacificLB/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="131">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,141 +32,63 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>OOCU7703222</t>
+    <t>OOLU8534822</t>
+  </si>
+  <si>
+    <t>APL ESPLANADE</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>DJLAXA3851438</t>
+  </si>
+  <si>
+    <t>7075355038</t>
+  </si>
+  <si>
+    <t>2105729605</t>
+  </si>
+  <si>
+    <t>OOLU9335595</t>
+  </si>
+  <si>
+    <t>KOTA PURI</t>
+  </si>
+  <si>
+    <t>DJLAXA3827446</t>
+  </si>
+  <si>
+    <t>7075355720</t>
+  </si>
+  <si>
+    <t>2105869140</t>
+  </si>
+  <si>
+    <t>CSNU6840404</t>
+  </si>
+  <si>
+    <t>KOTA PERWIRA</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>DJLAXA3881544</t>
+  </si>
+  <si>
+    <t>7075355966</t>
+  </si>
+  <si>
+    <t>6192853250</t>
+  </si>
+  <si>
+    <t>FSCU5043690</t>
   </si>
   <si>
     <t>COSCO AMERICA</t>
   </si>
   <si>
-    <t>00056</t>
-  </si>
-  <si>
-    <t>DJLAXA3774856</t>
-  </si>
-  <si>
-    <t>7075350470</t>
-  </si>
-  <si>
-    <t>2105801900</t>
-  </si>
-  <si>
-    <t>OOLU8534822</t>
-  </si>
-  <si>
-    <t>APL ESPLANADE</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>DJLAXA3851438</t>
-  </si>
-  <si>
-    <t>7075355038</t>
-  </si>
-  <si>
-    <t>2105729605</t>
-  </si>
-  <si>
-    <t>OOLU9335595</t>
-  </si>
-  <si>
-    <t>KOTA PURI</t>
-  </si>
-  <si>
-    <t>DJLAXA3827446</t>
-  </si>
-  <si>
-    <t>7075355720</t>
-  </si>
-  <si>
-    <t>2105869140</t>
-  </si>
-  <si>
-    <t>CSNU7242177</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>7075337736</t>
-  </si>
-  <si>
-    <t>6192853280</t>
-  </si>
-  <si>
-    <t>CBHU7039264</t>
-  </si>
-  <si>
-    <t>FSCU8900559</t>
-  </si>
-  <si>
-    <t>7075337742</t>
-  </si>
-  <si>
-    <t>6192855500</t>
-  </si>
-  <si>
-    <t>CSNU6384496</t>
-  </si>
-  <si>
-    <t>UETU5502528</t>
-  </si>
-  <si>
-    <t>BMOU4893428</t>
-  </si>
-  <si>
-    <t>7075337740</t>
-  </si>
-  <si>
-    <t>6192851330</t>
-  </si>
-  <si>
-    <t>CSNU6407544</t>
-  </si>
-  <si>
-    <t>CCLU6647830</t>
-  </si>
-  <si>
-    <t>CSNU6840404</t>
-  </si>
-  <si>
-    <t>KOTA PERWIRA</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>DJLAXA3881544</t>
-  </si>
-  <si>
-    <t>7075355966</t>
-  </si>
-  <si>
-    <t>6192853250</t>
-  </si>
-  <si>
-    <t>PCIU9327463</t>
-  </si>
-  <si>
-    <t>COSCO BELGIUM</t>
-  </si>
-  <si>
-    <t>00037</t>
-  </si>
-  <si>
-    <t>DJLAXA3970792</t>
-  </si>
-  <si>
-    <t>7075381910</t>
-  </si>
-  <si>
-    <t>HUPE90036400</t>
-  </si>
-  <si>
-    <t>FSCU5043690</t>
-  </si>
-  <si>
     <t>00057</t>
   </si>
   <si>
@@ -191,31 +113,55 @@
     <t>CKBH80037400</t>
   </si>
   <si>
-    <t>CCLU4523608</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>7075387188</t>
-  </si>
-  <si>
-    <t>6202929860</t>
-  </si>
-  <si>
-    <t>CSNU4044115</t>
-  </si>
-  <si>
-    <t>SEGU5288938</t>
-  </si>
-  <si>
-    <t>CCLU5164360</t>
-  </si>
-  <si>
-    <t>CAIU4529083</t>
-  </si>
-  <si>
-    <t>WHLU0524858</t>
+    <t>WHSU4030674</t>
+  </si>
+  <si>
+    <t>COSCO EUROPE</t>
+  </si>
+  <si>
+    <t>00066</t>
+  </si>
+  <si>
+    <t>DJLAXA3986551</t>
+  </si>
+  <si>
+    <t>7075378479</t>
+  </si>
+  <si>
+    <t>0229A22359</t>
+  </si>
+  <si>
+    <t>FSCU5062724</t>
+  </si>
+  <si>
+    <t>7075394090</t>
+  </si>
+  <si>
+    <t>6206960320</t>
+  </si>
+  <si>
+    <t>BSIU2686181</t>
+  </si>
+  <si>
+    <t>CBHU8893149</t>
+  </si>
+  <si>
+    <t>DJLAXA3881538</t>
+  </si>
+  <si>
+    <t>PCIU9133581</t>
+  </si>
+  <si>
+    <t>DJLAXA3964433</t>
+  </si>
+  <si>
+    <t>CSNU6499073</t>
+  </si>
+  <si>
+    <t>DJLAXA3881543</t>
+  </si>
+  <si>
+    <t>OOLU9490550</t>
   </si>
   <si>
     <t>KOTA PERDANA</t>
@@ -224,111 +170,6 @@
     <t>00008</t>
   </si>
   <si>
-    <t>DJLAXA3964419</t>
-  </si>
-  <si>
-    <t>7075387760</t>
-  </si>
-  <si>
-    <t>0319511492</t>
-  </si>
-  <si>
-    <t>WHSU4030674</t>
-  </si>
-  <si>
-    <t>COSCO EUROPE</t>
-  </si>
-  <si>
-    <t>00066</t>
-  </si>
-  <si>
-    <t>DJLAXA3986551</t>
-  </si>
-  <si>
-    <t>7075378479</t>
-  </si>
-  <si>
-    <t>0229A22359</t>
-  </si>
-  <si>
-    <t>PCIU9185219</t>
-  </si>
-  <si>
-    <t>7075386565</t>
-  </si>
-  <si>
-    <t>SZX900811100</t>
-  </si>
-  <si>
-    <t>PCIU9381314</t>
-  </si>
-  <si>
-    <t>PCIU9018166</t>
-  </si>
-  <si>
-    <t>PCIU9407759</t>
-  </si>
-  <si>
-    <t>TEMU6184214</t>
-  </si>
-  <si>
-    <t>DJLAXA3970793</t>
-  </si>
-  <si>
-    <t>FSCU5062724</t>
-  </si>
-  <si>
-    <t>7075394090</t>
-  </si>
-  <si>
-    <t>6206960320</t>
-  </si>
-  <si>
-    <t>BSIU2686181</t>
-  </si>
-  <si>
-    <t>CBHU8893149</t>
-  </si>
-  <si>
-    <t>DJLAXA3881538</t>
-  </si>
-  <si>
-    <t>PCIU9133581</t>
-  </si>
-  <si>
-    <t>DJLAXA3964433</t>
-  </si>
-  <si>
-    <t>PCIU8612379</t>
-  </si>
-  <si>
-    <t>7075385137</t>
-  </si>
-  <si>
-    <t>HKG900129600</t>
-  </si>
-  <si>
-    <t>BMOU2573343</t>
-  </si>
-  <si>
-    <t>CSNU6499073</t>
-  </si>
-  <si>
-    <t>DJLAXA3881543</t>
-  </si>
-  <si>
-    <t>PCIU9465040</t>
-  </si>
-  <si>
-    <t>7075387162</t>
-  </si>
-  <si>
-    <t>SZX900812200</t>
-  </si>
-  <si>
-    <t>OOLU9490550</t>
-  </si>
-  <si>
     <t>DJLAXA3964452</t>
   </si>
   <si>
@@ -338,19 +179,109 @@
     <t>2106162300</t>
   </si>
   <si>
-    <t>CCLU7088891</t>
-  </si>
-  <si>
-    <t>7075386145</t>
-  </si>
-  <si>
-    <t>6204890990</t>
-  </si>
-  <si>
-    <t>SEGU4140756</t>
-  </si>
-  <si>
-    <t>FCIU9686150</t>
+    <t>FSCU8524765</t>
+  </si>
+  <si>
+    <t>7075394157</t>
+  </si>
+  <si>
+    <t>6200783460</t>
+  </si>
+  <si>
+    <t>DFSU7387739</t>
+  </si>
+  <si>
+    <t>CBHU9062371</t>
+  </si>
+  <si>
+    <t>TCKU6491089</t>
+  </si>
+  <si>
+    <t>TGBU5217801</t>
+  </si>
+  <si>
+    <t>OOLU9694722</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>7075391565</t>
+  </si>
+  <si>
+    <t>2106250950</t>
+  </si>
+  <si>
+    <t>PCIU8503697</t>
+  </si>
+  <si>
+    <t>KOTA PERABU</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>DJLAXA4021906</t>
+  </si>
+  <si>
+    <t>7075384024</t>
+  </si>
+  <si>
+    <t>HUA900140600</t>
+  </si>
+  <si>
+    <t>PCIU9384205</t>
+  </si>
+  <si>
+    <t>DJLAXA4021909</t>
+  </si>
+  <si>
+    <t>PCIU8989357</t>
+  </si>
+  <si>
+    <t>DJLAXA4021920</t>
+  </si>
+  <si>
+    <t>7075387227</t>
+  </si>
+  <si>
+    <t>HUA900162800</t>
+  </si>
+  <si>
+    <t>PCIU9329044</t>
+  </si>
+  <si>
+    <t>DJLAXA4021898</t>
+  </si>
+  <si>
+    <t>7075385340</t>
+  </si>
+  <si>
+    <t>HUA900175300</t>
+  </si>
+  <si>
+    <t>PCIU1553090</t>
+  </si>
+  <si>
+    <t>01011</t>
+  </si>
+  <si>
+    <t>7075394520</t>
+  </si>
+  <si>
+    <t>SZX900900600</t>
+  </si>
+  <si>
+    <t>PCIU2767286</t>
+  </si>
+  <si>
+    <t>DJLAXA4030131</t>
+  </si>
+  <si>
+    <t>7075391498</t>
+  </si>
+  <si>
+    <t>HUA900191500</t>
   </si>
   <si>
     <t>DFSU2113709</t>
@@ -365,25 +296,115 @@
     <t>AJD0257243</t>
   </si>
   <si>
-    <t>CCLU4856595</t>
-  </si>
-  <si>
-    <t>7075389527</t>
-  </si>
-  <si>
-    <t>6200782540</t>
-  </si>
-  <si>
-    <t>PCIU1566760</t>
-  </si>
-  <si>
-    <t>DJLAXA3994102</t>
-  </si>
-  <si>
-    <t>7075380145</t>
-  </si>
-  <si>
-    <t>SGN900359400</t>
+    <t>UETU2676110</t>
+  </si>
+  <si>
+    <t>7075394626</t>
+  </si>
+  <si>
+    <t>6200782990</t>
+  </si>
+  <si>
+    <t>CSLU1988813</t>
+  </si>
+  <si>
+    <t>CBHU5606970</t>
+  </si>
+  <si>
+    <t>CXDU1327426</t>
+  </si>
+  <si>
+    <t>CAIU9746013</t>
+  </si>
+  <si>
+    <t>DJLAXA4021893</t>
+  </si>
+  <si>
+    <t>7075386149</t>
+  </si>
+  <si>
+    <t>HUPE90039200</t>
+  </si>
+  <si>
+    <t>ECMU4401631</t>
+  </si>
+  <si>
+    <t>DJLAXA4028140</t>
+  </si>
+  <si>
+    <t>7075397858</t>
+  </si>
+  <si>
+    <t>NPFB502860</t>
+  </si>
+  <si>
+    <t>CBHU6459339</t>
+  </si>
+  <si>
+    <t>CMA CGM G. WASHINGTON</t>
+  </si>
+  <si>
+    <t>DJLAXA4013286</t>
+  </si>
+  <si>
+    <t>7075389763</t>
+  </si>
+  <si>
+    <t>6204882360</t>
+  </si>
+  <si>
+    <t>ECMU4516435</t>
+  </si>
+  <si>
+    <t>DJLAXA4028157</t>
+  </si>
+  <si>
+    <t>CCLU6880184</t>
+  </si>
+  <si>
+    <t>7075394103</t>
+  </si>
+  <si>
+    <t>6206868360</t>
+  </si>
+  <si>
+    <t>MAGU5233376</t>
+  </si>
+  <si>
+    <t>PCIU8969221</t>
+  </si>
+  <si>
+    <t>DJLAXA4021918</t>
+  </si>
+  <si>
+    <t>PCIU9165716</t>
+  </si>
+  <si>
+    <t>DJLAXA4021908</t>
+  </si>
+  <si>
+    <t>WHSU5497088</t>
+  </si>
+  <si>
+    <t>DJLAXA4021845</t>
+  </si>
+  <si>
+    <t>7075393323</t>
+  </si>
+  <si>
+    <t>0259A13730</t>
+  </si>
+  <si>
+    <t>PCIU8794571</t>
+  </si>
+  <si>
+    <t>DJLAXA4021907</t>
+  </si>
+  <si>
+    <t>PCIU8974444</t>
+  </si>
+  <si>
+    <t>DJLAXA4021919</t>
   </si>
 </sst>
 </file>
@@ -428,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -482,27 +503,27 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -519,779 +540,739 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
       </c>
       <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
         <v>68</v>
       </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/PacificLB/Test.xlsx
+++ b/PacificLB/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,24 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>OOLU8534822</t>
-  </si>
-  <si>
-    <t>APL ESPLANADE</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>DJLAXA3851438</t>
-  </si>
-  <si>
-    <t>7075355038</t>
-  </si>
-  <si>
-    <t>2105729605</t>
-  </si>
-  <si>
     <t>CSNU6840404</t>
   </si>
   <si>
@@ -116,21 +98,6 @@
     <t>6198972800</t>
   </si>
   <si>
-    <t>CBHU5869473</t>
-  </si>
-  <si>
-    <t>KOTA PAHLAWAN</t>
-  </si>
-  <si>
-    <t>DJLAXA4069646</t>
-  </si>
-  <si>
-    <t>7075403138</t>
-  </si>
-  <si>
-    <t>6205005170</t>
-  </si>
-  <si>
     <t>OOLU9694722</t>
   </si>
   <si>
@@ -146,93 +113,6 @@
     <t>2106250950</t>
   </si>
   <si>
-    <t>WHLU5437329</t>
-  </si>
-  <si>
-    <t>7075402161</t>
-  </si>
-  <si>
-    <t>0259A14901</t>
-  </si>
-  <si>
-    <t>PCIU8548768</t>
-  </si>
-  <si>
-    <t>7075402500</t>
-  </si>
-  <si>
-    <t>SZX900985500</t>
-  </si>
-  <si>
-    <t>PCIU9473935</t>
-  </si>
-  <si>
-    <t>PCIU9454811</t>
-  </si>
-  <si>
-    <t>KOTA PERABU</t>
-  </si>
-  <si>
-    <t>00010</t>
-  </si>
-  <si>
-    <t>DJLAXA4043668</t>
-  </si>
-  <si>
-    <t>7075385476</t>
-  </si>
-  <si>
-    <t>SGN900370700</t>
-  </si>
-  <si>
-    <t>CCLU7440699</t>
-  </si>
-  <si>
-    <t>7075402169</t>
-  </si>
-  <si>
-    <t>6204982510</t>
-  </si>
-  <si>
-    <t>PCIU2767286</t>
-  </si>
-  <si>
-    <t>01011</t>
-  </si>
-  <si>
-    <t>DJLAXA4030131</t>
-  </si>
-  <si>
-    <t>7075391498</t>
-  </si>
-  <si>
-    <t>HUA900191500</t>
-  </si>
-  <si>
-    <t>WHLU5841222</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>7075401198</t>
-  </si>
-  <si>
-    <t>0229A36238</t>
-  </si>
-  <si>
-    <t>PCIU4586760</t>
-  </si>
-  <si>
-    <t>DJLAXA4064434</t>
-  </si>
-  <si>
-    <t>7075403141</t>
-  </si>
-  <si>
-    <t>SZX900986700</t>
-  </si>
-  <si>
     <t>CCLU6880184</t>
   </si>
   <si>
@@ -248,39 +128,66 @@
     <t>MAGU5233376</t>
   </si>
   <si>
-    <t>DFSU7752997</t>
-  </si>
-  <si>
-    <t>7075402350</t>
-  </si>
-  <si>
-    <t>0259A14900</t>
-  </si>
-  <si>
-    <t>FCIU9498532</t>
-  </si>
-  <si>
-    <t>7075402044</t>
-  </si>
-  <si>
-    <t>6204982516</t>
-  </si>
-  <si>
-    <t>CCLU4721521</t>
-  </si>
-  <si>
-    <t>7075402111</t>
-  </si>
-  <si>
-    <t>6204982512</t>
+    <t>DTXU2016014</t>
+  </si>
+  <si>
+    <t>COSCO TAICANG</t>
+  </si>
+  <si>
+    <t>00060</t>
+  </si>
+  <si>
+    <t>7075414604</t>
+  </si>
+  <si>
+    <t>6212309050</t>
+  </si>
+  <si>
+    <t>DTXU2016020</t>
+  </si>
+  <si>
+    <t>DENU2012180</t>
+  </si>
+  <si>
+    <t>DENU2012241</t>
+  </si>
+  <si>
+    <t>DENU2012220</t>
+  </si>
+  <si>
+    <t>MAGU4874375</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>DJLAXA4091062</t>
+  </si>
+  <si>
+    <t>7075407140</t>
+  </si>
+  <si>
+    <t>6211388540</t>
+  </si>
+  <si>
+    <t>PCIU8292254</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7075391630</t>
+  </si>
+  <si>
+    <t>CKBH80037500</t>
+  </si>
+  <si>
+    <t>PCIU9152323</t>
   </si>
   <si>
     <t>DTXU4402464</t>
   </si>
   <si>
-    <t>00003</t>
-  </si>
-  <si>
     <t>DJLAXA4072687</t>
   </si>
   <si>
@@ -290,13 +197,58 @@
     <t>6206961340</t>
   </si>
   <si>
-    <t>TEMU4449119</t>
-  </si>
-  <si>
-    <t>7075397909</t>
-  </si>
-  <si>
-    <t>HUPE90050500</t>
+    <t>TGHU9299076</t>
+  </si>
+  <si>
+    <t>7075394217</t>
+  </si>
+  <si>
+    <t>6192858010</t>
+  </si>
+  <si>
+    <t>CSNU6536623</t>
+  </si>
+  <si>
+    <t>CSNU6072950</t>
+  </si>
+  <si>
+    <t>PCIU8131270</t>
+  </si>
+  <si>
+    <t>7075393197</t>
+  </si>
+  <si>
+    <t>CKBH80038900</t>
+  </si>
+  <si>
+    <t>PCIU8416020</t>
+  </si>
+  <si>
+    <t>PCIU9341712</t>
+  </si>
+  <si>
+    <t>CSLU6329660</t>
+  </si>
+  <si>
+    <t>DJLAXA4099740</t>
+  </si>
+  <si>
+    <t>7075410090</t>
+  </si>
+  <si>
+    <t>6209907940</t>
+  </si>
+  <si>
+    <t>DFSU6259800</t>
+  </si>
+  <si>
+    <t>DJLAXA4092001</t>
+  </si>
+  <si>
+    <t>7075407170</t>
+  </si>
+  <si>
+    <t>6211400690</t>
   </si>
 </sst>
 </file>
@@ -341,7 +293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -392,59 +344,59 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -481,350 +433,390 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/PacificLB/Test.xlsx
+++ b/PacificLB/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="110">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,36 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CSNU6840404</t>
-  </si>
-  <si>
-    <t>KOTA PERWIRA</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>DJLAXA3881544</t>
-  </si>
-  <si>
-    <t>7075355966</t>
-  </si>
-  <si>
-    <t>6192853250</t>
-  </si>
-  <si>
-    <t>CBHU8893149</t>
-  </si>
-  <si>
-    <t>DJLAXA3881538</t>
-  </si>
-  <si>
-    <t>CSNU6499073</t>
-  </si>
-  <si>
-    <t>DJLAXA3881543</t>
-  </si>
-  <si>
     <t>OOLU9490550</t>
   </si>
   <si>
@@ -128,6 +98,21 @@
     <t>MAGU5233376</t>
   </si>
   <si>
+    <t>CBHU8681535</t>
+  </si>
+  <si>
+    <t>CSCL SUMMER</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>7075413894</t>
+  </si>
+  <si>
+    <t>6205089196</t>
+  </si>
+  <si>
     <t>DTXU2016014</t>
   </si>
   <si>
@@ -155,19 +140,76 @@
     <t>DENU2012220</t>
   </si>
   <si>
-    <t>MAGU4874375</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>DJLAXA4091062</t>
-  </si>
-  <si>
-    <t>7075407140</t>
-  </si>
-  <si>
-    <t>6211388540</t>
+    <t>PCIU1541099</t>
+  </si>
+  <si>
+    <t>00023</t>
+  </si>
+  <si>
+    <t>7075414773</t>
+  </si>
+  <si>
+    <t>SZX901067400</t>
+  </si>
+  <si>
+    <t>OOCU7715331</t>
+  </si>
+  <si>
+    <t>DJLAXA4123415</t>
+  </si>
+  <si>
+    <t>7075412666</t>
+  </si>
+  <si>
+    <t>2106465680</t>
+  </si>
+  <si>
+    <t>PCIU0061264</t>
+  </si>
+  <si>
+    <t>DJLAXA4123378</t>
+  </si>
+  <si>
+    <t>7075407634</t>
+  </si>
+  <si>
+    <t>SGN900428600</t>
+  </si>
+  <si>
+    <t>OOCU7455810</t>
+  </si>
+  <si>
+    <t>DJLAXA4123417</t>
+  </si>
+  <si>
+    <t>7075412662</t>
+  </si>
+  <si>
+    <t>TGHU9679522</t>
+  </si>
+  <si>
+    <t>DJLAXA4129584</t>
+  </si>
+  <si>
+    <t>7075408655</t>
+  </si>
+  <si>
+    <t>SGN900510600</t>
+  </si>
+  <si>
+    <t>CBHU8648326</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>7075405220</t>
+  </si>
+  <si>
+    <t>6192866750</t>
+  </si>
+  <si>
+    <t>CSNU7127002</t>
   </si>
   <si>
     <t>PCIU8292254</t>
@@ -185,70 +227,121 @@
     <t>PCIU9152323</t>
   </si>
   <si>
-    <t>DTXU4402464</t>
-  </si>
-  <si>
-    <t>DJLAXA4072687</t>
-  </si>
-  <si>
-    <t>7075408954</t>
-  </si>
-  <si>
-    <t>6206961340</t>
-  </si>
-  <si>
-    <t>TGHU9299076</t>
-  </si>
-  <si>
-    <t>7075394217</t>
-  </si>
-  <si>
-    <t>6192858010</t>
-  </si>
-  <si>
-    <t>CSNU6536623</t>
-  </si>
-  <si>
-    <t>CSNU6072950</t>
-  </si>
-  <si>
-    <t>PCIU8131270</t>
-  </si>
-  <si>
-    <t>7075393197</t>
-  </si>
-  <si>
-    <t>CKBH80038900</t>
-  </si>
-  <si>
-    <t>PCIU8416020</t>
-  </si>
-  <si>
-    <t>PCIU9341712</t>
-  </si>
-  <si>
-    <t>CSLU6329660</t>
-  </si>
-  <si>
-    <t>DJLAXA4099740</t>
-  </si>
-  <si>
-    <t>7075410090</t>
-  </si>
-  <si>
-    <t>6209907940</t>
-  </si>
-  <si>
-    <t>DFSU6259800</t>
-  </si>
-  <si>
-    <t>DJLAXA4092001</t>
-  </si>
-  <si>
-    <t>7075407170</t>
-  </si>
-  <si>
-    <t>6211400690</t>
+    <t>PCIU8646492</t>
+  </si>
+  <si>
+    <t>7075412761</t>
+  </si>
+  <si>
+    <t>HUPE90049700</t>
+  </si>
+  <si>
+    <t>SEGU6133782</t>
+  </si>
+  <si>
+    <t>PCIU9153612</t>
+  </si>
+  <si>
+    <t>OOLU9600451</t>
+  </si>
+  <si>
+    <t>DJLAXA4123419</t>
+  </si>
+  <si>
+    <t>7075412663</t>
+  </si>
+  <si>
+    <t>OOCU7826361</t>
+  </si>
+  <si>
+    <t>DJLAXA4123422</t>
+  </si>
+  <si>
+    <t>7075412664</t>
+  </si>
+  <si>
+    <t>TCLU1480849</t>
+  </si>
+  <si>
+    <t>DJLAXA4123430</t>
+  </si>
+  <si>
+    <t>7075412665</t>
+  </si>
+  <si>
+    <t>FCIU9772258</t>
+  </si>
+  <si>
+    <t>7075414546</t>
+  </si>
+  <si>
+    <t>6205089193</t>
+  </si>
+  <si>
+    <t>CCLU5296345</t>
+  </si>
+  <si>
+    <t>7075415546</t>
+  </si>
+  <si>
+    <t>6202944660</t>
+  </si>
+  <si>
+    <t>CCLU5224237</t>
+  </si>
+  <si>
+    <t>FSCU5101409</t>
+  </si>
+  <si>
+    <t>CCLU4611268</t>
+  </si>
+  <si>
+    <t>CBHU6386320</t>
+  </si>
+  <si>
+    <t>CSNU4086954</t>
+  </si>
+  <si>
+    <t>CSLU1531853</t>
+  </si>
+  <si>
+    <t>7075414650</t>
+  </si>
+  <si>
+    <t>6205087532</t>
+  </si>
+  <si>
+    <t>PCIU1422504</t>
+  </si>
+  <si>
+    <t>DJLAXA4129694</t>
+  </si>
+  <si>
+    <t>7075408528</t>
+  </si>
+  <si>
+    <t>SGN900499500</t>
+  </si>
+  <si>
+    <t>OOCU7690470</t>
+  </si>
+  <si>
+    <t>DJLAXA4123414</t>
+  </si>
+  <si>
+    <t>7075412661</t>
+  </si>
+  <si>
+    <t>CBHU4321947</t>
+  </si>
+  <si>
+    <t>060E</t>
+  </si>
+  <si>
+    <t>7075414135</t>
+  </si>
+  <si>
+    <t>COSU6198972540</t>
   </si>
 </sst>
 </file>
@@ -293,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -344,67 +437,67 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -413,10 +506,10 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -444,119 +537,119 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -564,259 +657,499 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/PacificLB/Test.xlsx
+++ b/PacificLB/Test.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\PacificLB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -134,224 +141,223 @@
     <t>DENU2012180</t>
   </si>
   <si>
+    <t>COSU6198972540</t>
+  </si>
+  <si>
+    <t>7075414135</t>
+  </si>
+  <si>
+    <t>060E</t>
+  </si>
+  <si>
+    <t>CBHU4321947</t>
+  </si>
+  <si>
+    <t>2106465680</t>
+  </si>
+  <si>
+    <t>7075412661</t>
+  </si>
+  <si>
+    <t>DJLAXA4123414</t>
+  </si>
+  <si>
+    <t>OOCU7690470</t>
+  </si>
+  <si>
+    <t>SGN900499500</t>
+  </si>
+  <si>
+    <t>7075408528</t>
+  </si>
+  <si>
+    <t>DJLAXA4129694</t>
+  </si>
+  <si>
+    <t>00023</t>
+  </si>
+  <si>
+    <t>PCIU1422504</t>
+  </si>
+  <si>
+    <t>6205087532</t>
+  </si>
+  <si>
+    <t>7075414650</t>
+  </si>
+  <si>
+    <t>CSLU1531853</t>
+  </si>
+  <si>
+    <t>6202944660</t>
+  </si>
+  <si>
+    <t>7075415546</t>
+  </si>
+  <si>
+    <t>CSNU4086954</t>
+  </si>
+  <si>
+    <t>CBHU6386320</t>
+  </si>
+  <si>
+    <t>CCLU4611268</t>
+  </si>
+  <si>
+    <t>FSCU5101409</t>
+  </si>
+  <si>
+    <t>CCLU5224237</t>
+  </si>
+  <si>
+    <t>CCLU5296345</t>
+  </si>
+  <si>
+    <t>6205089193</t>
+  </si>
+  <si>
+    <t>7075414546</t>
+  </si>
+  <si>
+    <t>FCIU9772258</t>
+  </si>
+  <si>
+    <t>7075412665</t>
+  </si>
+  <si>
+    <t>DJLAXA4123430</t>
+  </si>
+  <si>
+    <t>TCLU1480849</t>
+  </si>
+  <si>
+    <t>7075412664</t>
+  </si>
+  <si>
+    <t>DJLAXA4123422</t>
+  </si>
+  <si>
+    <t>OOCU7826361</t>
+  </si>
+  <si>
+    <t>7075412663</t>
+  </si>
+  <si>
+    <t>DJLAXA4123419</t>
+  </si>
+  <si>
+    <t>OOLU9600451</t>
+  </si>
+  <si>
+    <t>HUPE90049700</t>
+  </si>
+  <si>
+    <t>7075412761</t>
+  </si>
+  <si>
+    <t>PCIU9153612</t>
+  </si>
+  <si>
+    <t>SEGU6133782</t>
+  </si>
+  <si>
+    <t>PCIU8646492</t>
+  </si>
+  <si>
+    <t>CKBH80037500</t>
+  </si>
+  <si>
+    <t>7075391630</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>PCIU9152323</t>
+  </si>
+  <si>
+    <t>PCIU8292254</t>
+  </si>
+  <si>
+    <t>6192866750</t>
+  </si>
+  <si>
+    <t>7075405220</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>CSNU7127002</t>
+  </si>
+  <si>
+    <t>CBHU8648326</t>
+  </si>
+  <si>
+    <t>SGN900510600</t>
+  </si>
+  <si>
+    <t>7075408655</t>
+  </si>
+  <si>
+    <t>DJLAXA4129584</t>
+  </si>
+  <si>
+    <t>TGHU9679522</t>
+  </si>
+  <si>
+    <t>7075412662</t>
+  </si>
+  <si>
+    <t>DJLAXA4123417</t>
+  </si>
+  <si>
+    <t>OOCU7455810</t>
+  </si>
+  <si>
+    <t>SGN900428600</t>
+  </si>
+  <si>
+    <t>7075407634</t>
+  </si>
+  <si>
+    <t>DJLAXA4123378</t>
+  </si>
+  <si>
+    <t>PCIU0061264</t>
+  </si>
+  <si>
+    <t>7075412666</t>
+  </si>
+  <si>
+    <t>DJLAXA4123415</t>
+  </si>
+  <si>
+    <t>OOCU7715331</t>
+  </si>
+  <si>
+    <t>SZX901067400</t>
+  </si>
+  <si>
+    <t>7075414773</t>
+  </si>
+  <si>
+    <t>PCIU1541099</t>
+  </si>
+  <si>
+    <t>DENU2012220</t>
+  </si>
+  <si>
     <t>DENU2012241</t>
-  </si>
-  <si>
-    <t>DENU2012220</t>
-  </si>
-  <si>
-    <t>PCIU1541099</t>
-  </si>
-  <si>
-    <t>00023</t>
-  </si>
-  <si>
-    <t>7075414773</t>
-  </si>
-  <si>
-    <t>SZX901067400</t>
-  </si>
-  <si>
-    <t>OOCU7715331</t>
-  </si>
-  <si>
-    <t>DJLAXA4123415</t>
-  </si>
-  <si>
-    <t>7075412666</t>
-  </si>
-  <si>
-    <t>2106465680</t>
-  </si>
-  <si>
-    <t>PCIU0061264</t>
-  </si>
-  <si>
-    <t>DJLAXA4123378</t>
-  </si>
-  <si>
-    <t>7075407634</t>
-  </si>
-  <si>
-    <t>SGN900428600</t>
-  </si>
-  <si>
-    <t>OOCU7455810</t>
-  </si>
-  <si>
-    <t>DJLAXA4123417</t>
-  </si>
-  <si>
-    <t>7075412662</t>
-  </si>
-  <si>
-    <t>TGHU9679522</t>
-  </si>
-  <si>
-    <t>DJLAXA4129584</t>
-  </si>
-  <si>
-    <t>7075408655</t>
-  </si>
-  <si>
-    <t>SGN900510600</t>
-  </si>
-  <si>
-    <t>CBHU8648326</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>7075405220</t>
-  </si>
-  <si>
-    <t>6192866750</t>
-  </si>
-  <si>
-    <t>CSNU7127002</t>
-  </si>
-  <si>
-    <t>PCIU8292254</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7075391630</t>
-  </si>
-  <si>
-    <t>CKBH80037500</t>
-  </si>
-  <si>
-    <t>PCIU9152323</t>
-  </si>
-  <si>
-    <t>PCIU8646492</t>
-  </si>
-  <si>
-    <t>7075412761</t>
-  </si>
-  <si>
-    <t>HUPE90049700</t>
-  </si>
-  <si>
-    <t>SEGU6133782</t>
-  </si>
-  <si>
-    <t>PCIU9153612</t>
-  </si>
-  <si>
-    <t>OOLU9600451</t>
-  </si>
-  <si>
-    <t>DJLAXA4123419</t>
-  </si>
-  <si>
-    <t>7075412663</t>
-  </si>
-  <si>
-    <t>OOCU7826361</t>
-  </si>
-  <si>
-    <t>DJLAXA4123422</t>
-  </si>
-  <si>
-    <t>7075412664</t>
-  </si>
-  <si>
-    <t>TCLU1480849</t>
-  </si>
-  <si>
-    <t>DJLAXA4123430</t>
-  </si>
-  <si>
-    <t>7075412665</t>
-  </si>
-  <si>
-    <t>FCIU9772258</t>
-  </si>
-  <si>
-    <t>7075414546</t>
-  </si>
-  <si>
-    <t>6205089193</t>
-  </si>
-  <si>
-    <t>CCLU5296345</t>
-  </si>
-  <si>
-    <t>7075415546</t>
-  </si>
-  <si>
-    <t>6202944660</t>
-  </si>
-  <si>
-    <t>CCLU5224237</t>
-  </si>
-  <si>
-    <t>FSCU5101409</t>
-  </si>
-  <si>
-    <t>CCLU4611268</t>
-  </si>
-  <si>
-    <t>CBHU6386320</t>
-  </si>
-  <si>
-    <t>CSNU4086954</t>
-  </si>
-  <si>
-    <t>CSLU1531853</t>
-  </si>
-  <si>
-    <t>7075414650</t>
-  </si>
-  <si>
-    <t>6205087532</t>
-  </si>
-  <si>
-    <t>PCIU1422504</t>
-  </si>
-  <si>
-    <t>DJLAXA4129694</t>
-  </si>
-  <si>
-    <t>7075408528</t>
-  </si>
-  <si>
-    <t>SGN900499500</t>
-  </si>
-  <si>
-    <t>OOCU7690470</t>
-  </si>
-  <si>
-    <t>DJLAXA4123414</t>
-  </si>
-  <si>
-    <t>7075412661</t>
-  </si>
-  <si>
-    <t>CBHU4321947</t>
-  </si>
-  <si>
-    <t>060E</t>
-  </si>
-  <si>
-    <t>7075414135</t>
-  </si>
-  <si>
-    <t>COSU6198972540</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -363,7 +369,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -381,18 +387,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -432,7 +714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -452,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -472,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -492,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -512,7 +794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -532,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -552,7 +834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -572,7 +854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -592,9 +874,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -612,9 +894,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -632,29 +914,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -663,38 +945,38 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -703,118 +985,118 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -823,18 +1105,18 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -843,18 +1125,18 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -863,18 +1145,18 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
@@ -883,18 +1165,18 @@
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -903,18 +1185,18 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -923,38 +1205,38 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -963,18 +1245,18 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -983,18 +1265,18 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1003,18 +1285,18 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
@@ -1023,18 +1305,18 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -1043,18 +1325,18 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
@@ -1063,58 +1345,58 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
@@ -1123,36 +1405,36 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PacificLB/Test.xlsx
+++ b/PacificLB/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -113,18 +113,6 @@
     <t>2106465680</t>
   </si>
   <si>
-    <t>PCIU0061264</t>
-  </si>
-  <si>
-    <t>DJLAXA4123378</t>
-  </si>
-  <si>
-    <t>7075407634</t>
-  </si>
-  <si>
-    <t>SGN900428600</t>
-  </si>
-  <si>
     <t>OOCU7455810</t>
   </si>
   <si>
@@ -222,27 +210,6 @@
   </si>
   <si>
     <t>COSU6205124507</t>
-  </si>
-  <si>
-    <t>PCIU9250361</t>
-  </si>
-  <si>
-    <t>7075414274</t>
-  </si>
-  <si>
-    <t>HUA900243500</t>
-  </si>
-  <si>
-    <t>PCIU9427082</t>
-  </si>
-  <si>
-    <t>PCIU9041485</t>
-  </si>
-  <si>
-    <t>CAIU8413698</t>
-  </si>
-  <si>
-    <t>PCIU8846783</t>
   </si>
   <si>
     <t>OOLU8375253</t>
@@ -383,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -534,10 +501,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -546,12 +513,12 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -560,10 +527,10 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -571,7 +538,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -580,10 +547,10 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -591,7 +558,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -600,10 +567,10 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>32</v>
@@ -611,22 +578,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -634,10 +601,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -646,35 +613,35 @@
         <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>58</v>
@@ -683,21 +650,21 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>63</v>
@@ -714,319 +681,199 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
         <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
         <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/PacificLB/Test.xlsx
+++ b/PacificLB/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="227">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,36 +32,6 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>OOLU9694722</t>
-  </si>
-  <si>
-    <t>COSCO AMERICA</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>7075391565</t>
-  </si>
-  <si>
-    <t>2106250950</t>
-  </si>
-  <si>
-    <t>CCLU6880184</t>
-  </si>
-  <si>
-    <t>00057</t>
-  </si>
-  <si>
-    <t>7075394103</t>
-  </si>
-  <si>
-    <t>6206868360</t>
-  </si>
-  <si>
-    <t>MAGU5233376</t>
-  </si>
-  <si>
     <t>OOCU7715331</t>
   </si>
   <si>
@@ -125,117 +95,6 @@
     <t>7075412661</t>
   </si>
   <si>
-    <t>DRYU2811925</t>
-  </si>
-  <si>
-    <t>WAN HAI 805</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>DJLAXA4206963</t>
-  </si>
-  <si>
-    <t>7075418036</t>
-  </si>
-  <si>
-    <t>6202950580</t>
-  </si>
-  <si>
-    <t>CBHU8548230</t>
-  </si>
-  <si>
-    <t>KOTA PERDANA</t>
-  </si>
-  <si>
-    <t>00009</t>
-  </si>
-  <si>
-    <t>DJLAXA4193915</t>
-  </si>
-  <si>
-    <t>7075425391</t>
-  </si>
-  <si>
-    <t>6211637250</t>
-  </si>
-  <si>
-    <t>CCLU6726862</t>
-  </si>
-  <si>
-    <t>DJLAXA4193919</t>
-  </si>
-  <si>
-    <t>7075425552</t>
-  </si>
-  <si>
-    <t>6211637240</t>
-  </si>
-  <si>
-    <t>MAGU2161816</t>
-  </si>
-  <si>
-    <t>DJLAXA4205340</t>
-  </si>
-  <si>
-    <t>7075426648</t>
-  </si>
-  <si>
-    <t>6205069530</t>
-  </si>
-  <si>
-    <t>DENU2012318</t>
-  </si>
-  <si>
-    <t>DJLAXA4194355</t>
-  </si>
-  <si>
-    <t>7075425636</t>
-  </si>
-  <si>
-    <t>6214025410</t>
-  </si>
-  <si>
-    <t>PCIU9148787</t>
-  </si>
-  <si>
-    <t>DJLAXA4201015</t>
-  </si>
-  <si>
-    <t>7075426366</t>
-  </si>
-  <si>
-    <t>SZX901278400</t>
-  </si>
-  <si>
-    <t>APZU4465807</t>
-  </si>
-  <si>
-    <t>00331</t>
-  </si>
-  <si>
-    <t>DJLAXA4193922</t>
-  </si>
-  <si>
-    <t>7075426829</t>
-  </si>
-  <si>
-    <t>ZSN0298107</t>
-  </si>
-  <si>
-    <t>TCNU5621006</t>
-  </si>
-  <si>
-    <t>DJLAXA4194583</t>
-  </si>
-  <si>
-    <t>7075425396</t>
-  </si>
-  <si>
-    <t>6211637690</t>
-  </si>
-  <si>
     <t>OOLU8375253</t>
   </si>
   <si>
@@ -254,36 +113,6 @@
     <t>2106603520</t>
   </si>
   <si>
-    <t>WHSU5119278</t>
-  </si>
-  <si>
-    <t>DJLAXA4194588</t>
-  </si>
-  <si>
-    <t>7075426848</t>
-  </si>
-  <si>
-    <t>0259A18908</t>
-  </si>
-  <si>
-    <t>CZZU9993646</t>
-  </si>
-  <si>
-    <t>DJLAXA4194529</t>
-  </si>
-  <si>
-    <t>7075418439</t>
-  </si>
-  <si>
-    <t>CKBH80038800</t>
-  </si>
-  <si>
-    <t>TCLU4569225</t>
-  </si>
-  <si>
-    <t>DJLAXA4193923</t>
-  </si>
-  <si>
     <t>TRHU2857809</t>
   </si>
   <si>
@@ -302,18 +131,6 @@
     <t>6205206890</t>
   </si>
   <si>
-    <t>CBHU9484931</t>
-  </si>
-  <si>
-    <t>DJLAXA4194532</t>
-  </si>
-  <si>
-    <t>7075415650</t>
-  </si>
-  <si>
-    <t>6192866100</t>
-  </si>
-  <si>
     <t>OOLU9623776</t>
   </si>
   <si>
@@ -323,72 +140,6 @@
     <t>7075419147</t>
   </si>
   <si>
-    <t>CSNU6795250</t>
-  </si>
-  <si>
-    <t>DJLAXA4194533</t>
-  </si>
-  <si>
-    <t>TIHU2212930</t>
-  </si>
-  <si>
-    <t>DJLAXA4194596</t>
-  </si>
-  <si>
-    <t>7075425792</t>
-  </si>
-  <si>
-    <t>2106776820</t>
-  </si>
-  <si>
-    <t>TRLU5522469</t>
-  </si>
-  <si>
-    <t>DJLAXA4193924</t>
-  </si>
-  <si>
-    <t>BMOU4640477</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>7075422724</t>
-  </si>
-  <si>
-    <t>6204079480</t>
-  </si>
-  <si>
-    <t>TCNU7472112</t>
-  </si>
-  <si>
-    <t>TGCU5054014</t>
-  </si>
-  <si>
-    <t>TCKU6202817</t>
-  </si>
-  <si>
-    <t>TCNU3975232</t>
-  </si>
-  <si>
-    <t>CSNU6971404</t>
-  </si>
-  <si>
-    <t>SEGU6467049</t>
-  </si>
-  <si>
-    <t>PCIU9291951</t>
-  </si>
-  <si>
-    <t>DJLAXA4198985</t>
-  </si>
-  <si>
-    <t>7075425776</t>
-  </si>
-  <si>
-    <t>SHCS90138600</t>
-  </si>
-  <si>
     <t>TGBU5332153</t>
   </si>
   <si>
@@ -422,238 +173,526 @@
     <t>6205124572</t>
   </si>
   <si>
-    <t>BEAU4479250</t>
-  </si>
-  <si>
-    <t>COSCO SPAIN</t>
-  </si>
-  <si>
-    <t>00028</t>
-  </si>
-  <si>
-    <t>DJLAXA4223363</t>
-  </si>
-  <si>
-    <t>7075418950</t>
-  </si>
-  <si>
-    <t>W235146346</t>
-  </si>
-  <si>
-    <t>YMLU8341389</t>
-  </si>
-  <si>
-    <t>DJLAXA4223361</t>
-  </si>
-  <si>
-    <t>7075418952</t>
-  </si>
-  <si>
-    <t>W235146347</t>
-  </si>
-  <si>
-    <t>PCIU8526563</t>
-  </si>
-  <si>
-    <t>00058</t>
-  </si>
-  <si>
-    <t>DJLAXA4228035</t>
-  </si>
-  <si>
-    <t>7075431818</t>
-  </si>
-  <si>
-    <t>SHCS90142700</t>
-  </si>
-  <si>
-    <t>MAGU5551973</t>
-  </si>
-  <si>
-    <t>DJLAXA4223360</t>
-  </si>
-  <si>
-    <t>7075418954</t>
-  </si>
-  <si>
-    <t>W235146348</t>
-  </si>
-  <si>
-    <t>SEGU4251723</t>
-  </si>
-  <si>
-    <t>DJLAXA4223366</t>
-  </si>
-  <si>
-    <t>7075418948</t>
-  </si>
-  <si>
-    <t>W235146345</t>
-  </si>
-  <si>
-    <t>CSNU7060423</t>
+    <t>PCIU9298848</t>
   </si>
   <si>
     <t>COSCO EUROPE</t>
   </si>
   <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>7075431981</t>
-  </si>
-  <si>
-    <t>6194950810</t>
-  </si>
-  <si>
-    <t>BMOU4541026</t>
-  </si>
-  <si>
-    <t>OOCU7544373</t>
-  </si>
-  <si>
-    <t>DTXU2015511</t>
-  </si>
-  <si>
-    <t>DJLAXA4228014</t>
-  </si>
-  <si>
-    <t>7075433074</t>
-  </si>
-  <si>
-    <t>6212405150</t>
-  </si>
-  <si>
-    <t>CAXU7355583</t>
-  </si>
-  <si>
-    <t>00351</t>
-  </si>
-  <si>
-    <t>DJLAXA4228076</t>
-  </si>
-  <si>
-    <t>7075433511</t>
-  </si>
-  <si>
-    <t>AJR0109918</t>
-  </si>
-  <si>
-    <t>CMAU8297991</t>
-  </si>
-  <si>
-    <t>DJLAXA4228077</t>
-  </si>
-  <si>
-    <t>GLDU9062637</t>
-  </si>
-  <si>
-    <t>DJLAXA4228029</t>
-  </si>
-  <si>
-    <t>7075431816</t>
-  </si>
-  <si>
-    <t>SHCS90142600</t>
-  </si>
-  <si>
-    <t>FBLU0175640</t>
-  </si>
-  <si>
     <t>00067</t>
   </si>
   <si>
-    <t>DJLAXA4228060</t>
-  </si>
-  <si>
-    <t>7075433658</t>
-  </si>
-  <si>
-    <t>6205187321</t>
-  </si>
-  <si>
-    <t>APZU4273614</t>
-  </si>
-  <si>
-    <t>DJLAXA4228074</t>
-  </si>
-  <si>
-    <t>TGHU9678090</t>
-  </si>
-  <si>
-    <t>DJLAXA4227998</t>
-  </si>
-  <si>
-    <t>7075431788</t>
-  </si>
-  <si>
-    <t>SHCS90142900</t>
-  </si>
-  <si>
-    <t>TCLU6770183</t>
-  </si>
-  <si>
-    <t>DJLAXA4228009</t>
-  </si>
-  <si>
-    <t>7075431806</t>
-  </si>
-  <si>
-    <t>SHCS90143100</t>
-  </si>
-  <si>
-    <t>CAIU9927053</t>
-  </si>
-  <si>
-    <t>DJLAXA4228018</t>
-  </si>
-  <si>
-    <t>7075431810</t>
-  </si>
-  <si>
-    <t>SHCS90143200</t>
-  </si>
-  <si>
-    <t>PCIU9299422</t>
-  </si>
-  <si>
-    <t>DJLAXA4228007</t>
-  </si>
-  <si>
-    <t>7075431790</t>
-  </si>
-  <si>
-    <t>SHCS90143000</t>
-  </si>
-  <si>
-    <t>APZU4774072</t>
-  </si>
-  <si>
-    <t>DJLAXA4228075</t>
-  </si>
-  <si>
-    <t>PCIU9398087</t>
-  </si>
-  <si>
-    <t>DJLAXA4228038</t>
-  </si>
-  <si>
-    <t>7075431822</t>
-  </si>
-  <si>
-    <t>SHCS90142800</t>
-  </si>
-  <si>
-    <t>CSNU7224912</t>
-  </si>
-  <si>
-    <t>7075427429</t>
-  </si>
-  <si>
-    <t>6212435120</t>
-  </si>
-  <si>
-    <t>TLLU4163255</t>
+    <t>DJLAXA4237717</t>
+  </si>
+  <si>
+    <t>7075428687</t>
+  </si>
+  <si>
+    <t>HPH900183800</t>
+  </si>
+  <si>
+    <t>PCIU8296671</t>
+  </si>
+  <si>
+    <t>DJLAXA4237709</t>
+  </si>
+  <si>
+    <t>7075428688</t>
+  </si>
+  <si>
+    <t>PCIU9249627</t>
+  </si>
+  <si>
+    <t>DJLAXA4237715</t>
+  </si>
+  <si>
+    <t>CSNU1001871</t>
+  </si>
+  <si>
+    <t>KOTA PERABU</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>7075433466</t>
+  </si>
+  <si>
+    <t>6139277690</t>
+  </si>
+  <si>
+    <t>CSNU1191133</t>
+  </si>
+  <si>
+    <t>FBIU0395280</t>
+  </si>
+  <si>
+    <t>CSNU1386942</t>
+  </si>
+  <si>
+    <t>PCIU9291252</t>
+  </si>
+  <si>
+    <t>DJLAXA4237716</t>
+  </si>
+  <si>
+    <t>DRYU9501109</t>
+  </si>
+  <si>
+    <t>00061</t>
+  </si>
+  <si>
+    <t>DJLAXA4269216</t>
+  </si>
+  <si>
+    <t>7075434271</t>
+  </si>
+  <si>
+    <t>CKBH80039500</t>
+  </si>
+  <si>
+    <t>PCIU9364050</t>
+  </si>
+  <si>
+    <t>DJLAXA4269217</t>
+  </si>
+  <si>
+    <t>PCIU9193235</t>
+  </si>
+  <si>
+    <t>DJLAXA4237714</t>
+  </si>
+  <si>
+    <t>CAIU9320563</t>
+  </si>
+  <si>
+    <t>DJLAXA4269215</t>
+  </si>
+  <si>
+    <t>CBHU6369512</t>
+  </si>
+  <si>
+    <t>KOTA PAHLAWAN</t>
+  </si>
+  <si>
+    <t>00014</t>
+  </si>
+  <si>
+    <t>DJLAXA4305336</t>
+  </si>
+  <si>
+    <t>7075445549</t>
+  </si>
+  <si>
+    <t>6202964390</t>
+  </si>
+  <si>
+    <t>MAGU4878046</t>
+  </si>
+  <si>
+    <t>DJLAXA4305339</t>
+  </si>
+  <si>
+    <t>CCLU5188253</t>
+  </si>
+  <si>
+    <t>DJLAXA4305337</t>
+  </si>
+  <si>
+    <t>FSCU4643684</t>
+  </si>
+  <si>
+    <t>DJLAXA4305338</t>
+  </si>
+  <si>
+    <t>PCIU8585674</t>
+  </si>
+  <si>
+    <t>DJLAXA4348621</t>
+  </si>
+  <si>
+    <t>7075441314</t>
+  </si>
+  <si>
+    <t>CKBH80042300</t>
+  </si>
+  <si>
+    <t>PCIU8588436</t>
+  </si>
+  <si>
+    <t>DJLAXA4316581</t>
+  </si>
+  <si>
+    <t>7075445037</t>
+  </si>
+  <si>
+    <t>SZX901488500</t>
+  </si>
+  <si>
+    <t>PCIU8466079</t>
+  </si>
+  <si>
+    <t>DJLAXA4306005</t>
+  </si>
+  <si>
+    <t>7075438745</t>
+  </si>
+  <si>
+    <t>HUA900324400</t>
+  </si>
+  <si>
+    <t>TGHU4743300</t>
+  </si>
+  <si>
+    <t>DJLAXA4305340</t>
+  </si>
+  <si>
+    <t>TGHU6457650</t>
+  </si>
+  <si>
+    <t>KOTA PEKARANG</t>
+  </si>
+  <si>
+    <t>01011</t>
+  </si>
+  <si>
+    <t>DJLAXA4348584</t>
+  </si>
+  <si>
+    <t>7075451547</t>
+  </si>
+  <si>
+    <t>6205414492</t>
+  </si>
+  <si>
+    <t>CSLU6117553</t>
+  </si>
+  <si>
+    <t>DJLAXA4348583</t>
+  </si>
+  <si>
+    <t>PCIU8801536</t>
+  </si>
+  <si>
+    <t>7075451121</t>
+  </si>
+  <si>
+    <t>SZX901551400</t>
+  </si>
+  <si>
+    <t>PCIU8962166</t>
+  </si>
+  <si>
+    <t>DJLAXA4348622</t>
+  </si>
+  <si>
+    <t>CBHU4450538</t>
+  </si>
+  <si>
+    <t>KOTA PURI</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>DJLAXA4316402</t>
+  </si>
+  <si>
+    <t>7075445902</t>
+  </si>
+  <si>
+    <t>6213490540</t>
+  </si>
+  <si>
+    <t>PCIU9413509</t>
+  </si>
+  <si>
+    <t>DJLAXA4316584</t>
+  </si>
+  <si>
+    <t>WHSU2553830</t>
+  </si>
+  <si>
+    <t>DJLAXA4305923</t>
+  </si>
+  <si>
+    <t>7075442649</t>
+  </si>
+  <si>
+    <t>0229A54189</t>
+  </si>
+  <si>
+    <t>PCIU9366006</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>DJLAXA4342056</t>
+  </si>
+  <si>
+    <t>7075449276</t>
+  </si>
+  <si>
+    <t>HUA900346700</t>
+  </si>
+  <si>
+    <t>FCIU9247990</t>
+  </si>
+  <si>
+    <t>DJLAXA4342059</t>
+  </si>
+  <si>
+    <t>7075445804</t>
+  </si>
+  <si>
+    <t>HUA900356000</t>
+  </si>
+  <si>
+    <t>PCIU9433737</t>
+  </si>
+  <si>
+    <t>DJLAXA4342062</t>
+  </si>
+  <si>
+    <t>7075445811</t>
+  </si>
+  <si>
+    <t>HUA900327200</t>
+  </si>
+  <si>
+    <t>PCIU8958530</t>
+  </si>
+  <si>
+    <t>DJLAXA4342067</t>
+  </si>
+  <si>
+    <t>7075449182</t>
+  </si>
+  <si>
+    <t>HUA900366900</t>
+  </si>
+  <si>
+    <t>TEMU6188020</t>
+  </si>
+  <si>
+    <t>DJLAXA4342068</t>
+  </si>
+  <si>
+    <t>WHLU5659584</t>
+  </si>
+  <si>
+    <t>DJLAXA4342075</t>
+  </si>
+  <si>
+    <t>7075451563</t>
+  </si>
+  <si>
+    <t>0259553492</t>
+  </si>
+  <si>
+    <t>CAIU8592227</t>
+  </si>
+  <si>
+    <t>DJLAXA4342037</t>
+  </si>
+  <si>
+    <t>7075449272</t>
+  </si>
+  <si>
+    <t>HUA900346400</t>
+  </si>
+  <si>
+    <t>CSNU6288804</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>7075449318</t>
+  </si>
+  <si>
+    <t>6214268570</t>
+  </si>
+  <si>
+    <t>PCIU8653640</t>
+  </si>
+  <si>
+    <t>7075452475</t>
+  </si>
+  <si>
+    <t>SZX901550700</t>
+  </si>
+  <si>
+    <t>CXDU2051944</t>
+  </si>
+  <si>
+    <t>PCIU8780900</t>
+  </si>
+  <si>
+    <t>DJLAXA4342033</t>
+  </si>
+  <si>
+    <t>7075448246</t>
+  </si>
+  <si>
+    <t>HUA900346300</t>
+  </si>
+  <si>
+    <t>PCIU8648197</t>
+  </si>
+  <si>
+    <t>DJLAXA4342049</t>
+  </si>
+  <si>
+    <t>7075447778</t>
+  </si>
+  <si>
+    <t>HUPE90180200</t>
+  </si>
+  <si>
+    <t>PCIU8252122</t>
+  </si>
+  <si>
+    <t>DJLAXA4342048</t>
+  </si>
+  <si>
+    <t>TCNU7784065</t>
+  </si>
+  <si>
+    <t>DJLAXA4342050</t>
+  </si>
+  <si>
+    <t>CSNU6048613</t>
+  </si>
+  <si>
+    <t>7075445668</t>
+  </si>
+  <si>
+    <t>6213555930</t>
+  </si>
+  <si>
+    <t>BMOU3020039</t>
+  </si>
+  <si>
+    <t>7075450413</t>
+  </si>
+  <si>
+    <t>NPCA008911</t>
+  </si>
+  <si>
+    <t>TGHU1576744</t>
+  </si>
+  <si>
+    <t>PCIU2124227</t>
+  </si>
+  <si>
+    <t>0004E</t>
+  </si>
+  <si>
+    <t>7075443249</t>
+  </si>
+  <si>
+    <t>PABVSHOL90363300</t>
+  </si>
+  <si>
+    <t>TGHU9677052</t>
+  </si>
+  <si>
+    <t>DJLAXA4348623</t>
+  </si>
+  <si>
+    <t>CAIU9333576</t>
+  </si>
+  <si>
+    <t>DJLAXA4305973</t>
+  </si>
+  <si>
+    <t>7075444623</t>
+  </si>
+  <si>
+    <t>SZX901488600</t>
+  </si>
+  <si>
+    <t>PCIU8779411</t>
+  </si>
+  <si>
+    <t>DJLAXA4316583</t>
+  </si>
+  <si>
+    <t>PCIU9181260</t>
+  </si>
+  <si>
+    <t>DJLAXA4305975</t>
+  </si>
+  <si>
+    <t>PCIU9020292</t>
+  </si>
+  <si>
+    <t>DJLAXA4342035</t>
+  </si>
+  <si>
+    <t>7075449270</t>
+  </si>
+  <si>
+    <t>HUA900346600</t>
+  </si>
+  <si>
+    <t>PCIU8781023</t>
+  </si>
+  <si>
+    <t>DJLAXA4342066</t>
+  </si>
+  <si>
+    <t>CBHU1973854</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>7075451618</t>
+  </si>
+  <si>
+    <t>6202968190</t>
+  </si>
+  <si>
+    <t>FSCU5014460</t>
+  </si>
+  <si>
+    <t>TCNU3688762</t>
+  </si>
+  <si>
+    <t>CCLU4784134</t>
+  </si>
+  <si>
+    <t>TGHU9738965</t>
+  </si>
+  <si>
+    <t>CSNU6272578</t>
+  </si>
+  <si>
+    <t>PCIU8925970</t>
+  </si>
+  <si>
+    <t>DJLAXA4342040</t>
+  </si>
+  <si>
+    <t>7075448244</t>
+  </si>
+  <si>
+    <t>HUA900346500</t>
+  </si>
+  <si>
+    <t>CMAU6168362</t>
+  </si>
+  <si>
+    <t>7075447200</t>
+  </si>
+  <si>
+    <t>LYGA001581</t>
+  </si>
+  <si>
+    <t>FSCU8326040</t>
   </si>
 </sst>
 </file>
@@ -698,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -738,30 +777,30 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -772,27 +811,27 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -801,138 +840,138 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -949,10 +988,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -969,67 +1008,67 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -1038,890 +1077,1130 @@
         <v>67</v>
       </c>
       <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
         <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s">
         <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
         <v>75</v>
       </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>129</v>
-      </c>
-      <c r="E38" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
         <v>137</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>138</v>
       </c>
-      <c r="D41" t="s">
-        <v>143</v>
-      </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
         <v>137</v>
       </c>
-      <c r="C43" t="s">
-        <v>138</v>
-      </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
         <v>137</v>
       </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="s">
         <v>160</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>161</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>162</v>
-      </c>
-      <c r="E47" t="s">
-        <v>162</v>
-      </c>
-      <c r="F47" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F49" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F52" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F53" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F54" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F57" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F58" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F60" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
+        <v>212</v>
+      </c>
+      <c r="F65" t="s">
         <v>213</v>
       </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
         <v>211</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D66" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" t="s">
         <v>211</v>
       </c>
-      <c r="F61" t="s">
+      <c r="D67" t="s">
         <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>212</v>
+      </c>
+      <c r="F67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" t="s">
+        <v>212</v>
+      </c>
+      <c r="F70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" t="s">
+        <v>220</v>
+      </c>
+      <c r="E71" t="s">
+        <v>221</v>
+      </c>
+      <c r="F71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
